--- a/similarities/split_global/harmonic_similarity_timestamps_306.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_306.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.020000', '0:00:26.800000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:16.810929', '0:00:22.778458')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:54.580000', '0:01:00.600000')]</t>
+          <t>('0:00:19.220000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=16.810929</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=19.22</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C', 'F:maj', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['E', 'A', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+          <t>('0:01:58.227000', '0:02:18.210000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:00:06.090000', '0:00:18.686825')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=118.227</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-268#t=6.09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:00.240000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:00:45.460000', '0:00:58.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
+          <t>('0:04:24.615000', '0:04:35.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:01:42.174263', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
+          <t>('0:00:18.651995', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=96.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:23.800000', '0:00:54.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000')]</t>
+          <t>('0:00:02.640000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:01:09.840000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb/5', 'Bb:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:04:15.633000', '0:04:18.257000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min', 'A:7/C#', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:min/b3', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+          <t>('0:00:14.300000', '0:00:20.560000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:49.660000')]</t>
+          <t>('0:00:44.913000', '0:00:50.190000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=14.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=33.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=44.913</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_266</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'F', 'E:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G', 'F', 'E:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:01:20.811000', '0:01:24.866000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000'), ('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:03:28.407074', '0:03:36.441179')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=80.811</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=208.407074</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:17.340000', '0:02:20.480000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05', '0:00:21.500000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=5.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
